--- a/Inteligência Artificial/Atividades Avaliativas/3_ML Supervisionado/results/log_regression_result.xlsx
+++ b/Inteligência Artificial/Atividades Avaliativas/3_ML Supervisionado/results/log_regression_result.xlsx
@@ -489,10 +489,10 @@
         <v>0.7634</v>
       </c>
       <c r="F2" t="n">
-        <v>4.7835</v>
+        <v>6.2704</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0322</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>0.7634</v>
       </c>
       <c r="F3" t="n">
-        <v>9.083</v>
+        <v>12.6233</v>
       </c>
       <c r="G3" t="n">
         <v>0.0319</v>
@@ -539,10 +539,10 @@
         <v>0.764</v>
       </c>
       <c r="F4" t="n">
-        <v>14.3826</v>
+        <v>17.7222</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0186</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="5">
@@ -564,10 +564,10 @@
         <v>0.7658</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8483</v>
+        <v>2.3517</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0115</v>
+        <v>0.0249</v>
       </c>
     </row>
     <row r="6">
@@ -589,10 +589,10 @@
         <v>0.7609</v>
       </c>
       <c r="F6" t="n">
-        <v>0.548</v>
+        <v>0.6839</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0155</v>
+        <v>0.0298</v>
       </c>
     </row>
   </sheetData>
